--- a/Assets/excel/schedule.xlsx
+++ b/Assets/excel/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\VsCode\Python\AutoJoinZoom\Assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\githubRepo\AutoJoinZoom\Assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F96E081-9389-4358-94A3-8277E4358775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5DC13-D124-4E31-8868-0BA063A87B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31455" yWindow="3180" windowWidth="21600" windowHeight="11835" xr2:uid="{D3236B5E-EFE1-4572-A5D0-79CC12EE2AC9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Time_In</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF0D5A4-B0AF-4EFE-8B80-7CAF7069593A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,20 +460,38 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="D2" s="1">
-        <v>0.84375</v>
+        <v>0.85069444444444453</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.85138888888888886</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.google.com/url?q=https://us04web.zoom.us/j/76089098721?pwd%3DZMZcv9qHzsL0NZV868j_Cl2gyNbJwH.1&amp;sa=D&amp;source=calendar&amp;usd=2&amp;usg=AOvVaw2BmGMvUGOVYRJe4_YjUQrq" xr:uid="{E8C5486E-F2D9-4B03-AA4B-482C6CC30FAE}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://www.google.com/url?q=https://us04web.zoom.us/j/76089098721?pwd%3DZMZcv9qHzsL0NZV868j_Cl2gyNbJwH.1&amp;sa=D&amp;source=calendar&amp;usd=2&amp;usg=AOvVaw2BmGMvUGOVYRJe4_YjUQrq" xr:uid="{9DC9A59D-554E-4585-AF5C-85F6993BC52E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Assets/excel/schedule.xlsx
+++ b/Assets/excel/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\githubRepo\AutoJoinZoom\Assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF5DC13-D124-4E31-8868-0BA063A87B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E583B9-7C6F-4672-9DF5-DFD4F5AFC182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31455" yWindow="3180" windowWidth="21600" windowHeight="11835" xr2:uid="{D3236B5E-EFE1-4572-A5D0-79CC12EE2AC9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Time_In</t>
   </si>
@@ -59,6 +59,60 @@
   </si>
   <si>
     <t>https://us04web.zoom.us/j/76089098721?pwd=ZMZcv9qHzsL0NZV868j_Cl2gyNbJwH.1</t>
+  </si>
+  <si>
+    <t>https://feutech-edu-ph.zoom.us/j/96949323785?pwd=VVlONllHMU9vOUd1VXdJRERCa2w1dz09</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>https://feutech-edu-ph.zoom.us/j/99194182820?pwd=MW1yNlI2Z2psNjBhaGg4N3VyeldBQT09</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>GED0083L</t>
+  </si>
+  <si>
+    <t>https://feutech-edu-ph.zoom.us/j/96228400371?pwd=ZS9nKzRGSTYzWjl3dzhjMFRuclRSUT09</t>
+  </si>
+  <si>
+    <t>CS0031</t>
+  </si>
+  <si>
+    <t>GED0059</t>
+  </si>
+  <si>
+    <t>https://feutech-edu-ph.zoom.us/j/97057297726?pwd=a3lHNE5lSENIdVo0SVF4Q0IvR3J0dz09</t>
+  </si>
+  <si>
+    <t>CS0019</t>
+  </si>
+  <si>
+    <t>https://feutech-edu-ph.zoom.us/j/98470765035</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>CS0035</t>
+  </si>
+  <si>
+    <t>https://feutech-edu-ph.zoom.us/w/97044498209?tk=X2H7QayU77BZEY2TBpS1owQ_WGC4D3Yf-fJkxSzkvU4.DQMAAAAWmE2HIRY3eWQ2VmZuaVNDT200TjRJa1Q3bkZRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA&amp;pwd=SHNzSVMzZThSZkd5Z2dnbHZlUTRwdz09</t>
+  </si>
+  <si>
+    <t>https://feutech-edu-ph.zoom.us/w/96064332789?tk=LvvqbmAhYPf6uqNNficPOIeNSxsymu6xujNeExRlPNk.DQMAAAAWXeFj9RYwd0tGY25vblJjYUNOMEhpcFhBalV3AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA&amp;pwd=Rm9JSzJkMU9hd2lsZnRLYWRRdDBmQT09</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>https://feutech-edu-ph.zoom.us/j/92592376652?pwd=eThvN2dKUXhQWE03T3N3R2lweTZmdz09</t>
+  </si>
+  <si>
+    <t>Kenji</t>
   </si>
 </sst>
 </file>
@@ -422,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF0D5A4-B0AF-4EFE-8B80-7CAF7069593A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,39 +511,209 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>0.85</v>
+        <v>0.375</v>
       </c>
       <c r="D2" s="1">
-        <v>0.85069444444444453</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.85069444444444453</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.85138888888888886</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C13" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.google.com/url?q=https://us04web.zoom.us/j/76089098721?pwd%3DZMZcv9qHzsL0NZV868j_Cl2gyNbJwH.1&amp;sa=D&amp;source=calendar&amp;usd=2&amp;usg=AOvVaw2BmGMvUGOVYRJe4_YjUQrq" xr:uid="{E8C5486E-F2D9-4B03-AA4B-482C6CC30FAE}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://www.google.com/url?q=https://us04web.zoom.us/j/76089098721?pwd%3DZMZcv9qHzsL0NZV868j_Cl2gyNbJwH.1&amp;sa=D&amp;source=calendar&amp;usd=2&amp;usg=AOvVaw2BmGMvUGOVYRJe4_YjUQrq" xr:uid="{9DC9A59D-554E-4585-AF5C-85F6993BC52E}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{A7E4782F-C3C3-41EE-88FF-B8DFCD504914}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{76B3D984-0B9C-4A31-B396-1429FEA6FC65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Assets/excel/schedule.xlsx
+++ b/Assets/excel/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\githubRepo\AutoJoinZoom\Assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E583B9-7C6F-4672-9DF5-DFD4F5AFC182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DABCCA7-607C-409D-825F-23A89CA175E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31455" yWindow="3180" windowWidth="21600" windowHeight="11835" xr2:uid="{D3236B5E-EFE1-4572-A5D0-79CC12EE2AC9}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/excel/schedule.xlsx
+++ b/Assets/excel/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\githubRepo\AutoJoinZoom\Assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DABCCA7-607C-409D-825F-23A89CA175E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A0A08B-EA55-4AD4-A17C-F559031731EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31455" yWindow="3180" windowWidth="21600" windowHeight="11835" xr2:uid="{D3236B5E-EFE1-4572-A5D0-79CC12EE2AC9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Time_In</t>
   </si>
@@ -49,88 +49,17 @@
     <t>Zoom_Link</t>
   </si>
   <si>
-    <t>CS0027</t>
-  </si>
-  <si>
     <t>Day</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>https://us04web.zoom.us/j/76089098721?pwd=ZMZcv9qHzsL0NZV868j_Cl2gyNbJwH.1</t>
-  </si>
-  <si>
-    <t>https://feutech-edu-ph.zoom.us/j/96949323785?pwd=VVlONllHMU9vOUd1VXdJRERCa2w1dz09</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>https://feutech-edu-ph.zoom.us/j/99194182820?pwd=MW1yNlI2Z2psNjBhaGg4N3VyeldBQT09</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>GED0083L</t>
-  </si>
-  <si>
-    <t>https://feutech-edu-ph.zoom.us/j/96228400371?pwd=ZS9nKzRGSTYzWjl3dzhjMFRuclRSUT09</t>
-  </si>
-  <si>
-    <t>CS0031</t>
-  </si>
-  <si>
-    <t>GED0059</t>
-  </si>
-  <si>
-    <t>https://feutech-edu-ph.zoom.us/j/97057297726?pwd=a3lHNE5lSENIdVo0SVF4Q0IvR3J0dz09</t>
-  </si>
-  <si>
-    <t>CS0019</t>
-  </si>
-  <si>
-    <t>https://feutech-edu-ph.zoom.us/j/98470765035</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>CS0035</t>
-  </si>
-  <si>
-    <t>https://feutech-edu-ph.zoom.us/w/97044498209?tk=X2H7QayU77BZEY2TBpS1owQ_WGC4D3Yf-fJkxSzkvU4.DQMAAAAWmE2HIRY3eWQ2VmZuaVNDT200TjRJa1Q3bkZRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA&amp;pwd=SHNzSVMzZThSZkd5Z2dnbHZlUTRwdz09</t>
-  </si>
-  <si>
-    <t>https://feutech-edu-ph.zoom.us/w/96064332789?tk=LvvqbmAhYPf6uqNNficPOIeNSxsymu6xujNeExRlPNk.DQMAAAAWXeFj9RYwd0tGY25vblJjYUNOMEhpcFhBalV3AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA&amp;pwd=Rm9JSzJkMU9hd2lsZnRLYWRRdDBmQT09</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>https://feutech-edu-ph.zoom.us/j/92592376652?pwd=eThvN2dKUXhQWE03T3N3R2lweTZmdz09</t>
-  </si>
-  <si>
-    <t>Kenji</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,17 +82,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF0D5A4-B0AF-4EFE-8B80-7CAF7069593A}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E13" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -506,216 +431,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{A7E4782F-C3C3-41EE-88FF-B8DFCD504914}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{76B3D984-0B9C-4A31-B396-1429FEA6FC65}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>